--- a/data/ServedTime.xlsx
+++ b/data/ServedTime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lafe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\database_project-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E91677D-DCF3-480B-BA57-267D494DA7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7AE22-DB63-4975-8DC8-B516A36B60E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>served_time_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,170 @@
   </si>
   <si>
     <t>cafeteria_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(6:30-9:30)/Lunch(11:00-13:20)/Dinner(17:00-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(7:00-9:30)/Lunch(11:00-13:20)/Dinner(17:00-18:30)/Snack(18:30-20:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(10:45-13:00)/Dinner(17:00-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(6:30-10:00)/Lunch(10:30-13:30)/Dinner(17:00-19:00)/Snack(19:00-22:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松涛园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松涛园餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(11:00-14:00)/Dinner(17:00-20:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晖园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南草坪食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学一食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学五食堂一楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学五食堂二楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北风味食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康乐园餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康乐园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲园食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大凯丰酒店中餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大凯丰酒店西餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼乡餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆园餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(10:30-13:30)/Dinner(16:30-19:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(10:45-13:20)/Dinner(16:45-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(7:00-9:00)/Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(11:00-14:00)/Dinner(17:00-21:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(6:30-8:30)/Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(11:00-14:20)/Dinner(17:30-21:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(7:00-10:00)/Lunch(11:30-14:30)/Dinner(17:30-21:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(11:30-14:30)/Dinner(17:00-21:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(11:00-14:30)/Dinner(17:30-21:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政楼食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(6:30-9:30)/Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(7:00-9:30)/Lunch(11:00-13:30)/Dinner(16:30-19:30)/Snack(19:30-22:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast(7:00-9:30)/Lunch(10:45-13:00)/Dinner(16:45-19:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学二食堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,26 +528,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/ServedTime.xlsx
+++ b/data/ServedTime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\database_project-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7AE22-DB63-4975-8DC8-B516A36B60E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880C5FCA-A4B8-4DDA-83B5-75A283A656C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>served_time_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,171 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cafeteria_id</t>
+    <t>Breakfast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Breakfast(6:30-9:30)/Lunch(11:00-13:20)/Dinner(17:00-19:00)</t>
+    <t>Lunch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Breakfast(7:00-9:30)/Lunch(11:00-13:20)/Dinner(17:00-18:30)/Snack(18:30-20:30)</t>
+    <t>Dinner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lunch(10:45-13:00)/Dinner(17:00-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(6:30-10:00)/Lunch(10:30-13:30)/Dinner(17:00-19:00)/Snack(19:00-22:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松涛园食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松涛园餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(11:00-14:00)/Dinner(17:00-20:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春晖园食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南草坪食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学一食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学五食堂一楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学五食堂二楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北风味食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康乐园餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康乐园食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲园食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中大凯丰酒店中餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中大凯丰酒店西餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鱼乡餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫荆园餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(10:30-13:30)/Dinner(16:30-19:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(10:45-13:20)/Dinner(16:45-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(7:00-9:00)/Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(11:00-14:00)/Dinner(17:00-21:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(6:30-8:30)/Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(11:00-14:20)/Dinner(17:30-21:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(7:00-10:00)/Lunch(11:30-14:30)/Dinner(17:30-21:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(11:30-14:30)/Dinner(17:00-21:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(11:00-14:30)/Dinner(17:30-21:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政楼食堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(6:30-9:30)/Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(7:00-9:30)/Lunch(11:00-13:30)/Dinner(16:30-19:30)/Snack(19:30-22:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch(11:00-13:00)/Dinner(17:00-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakfast(7:00-9:30)/Lunch(10:45-13:00)/Dinner(16:45-19:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学二食堂</t>
+    <t>Snack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,14 +379,14 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="76.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,336 +395,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1">
-        <v>11</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1">
-        <v>12</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1">
-        <v>14</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1">
-        <v>15</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1">
-        <v>16</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1">
-        <v>17</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>18</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>19</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
